--- a/Semana 5/tiempo_de_LLegadayRampa.xlsx
+++ b/Semana 5/tiempo_de_LLegadayRampa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,1410 +449,1105 @@
           <t>TEA_Rampa</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo_Arribo_Rampa</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01271957810939517</v>
+        <v>0.00570998233422941</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01271957810939517</v>
+        <v>0.00570998233422941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2577478755395806</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2577478755395806</v>
+        <v>1.375819435102564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004256250626287556</v>
+        <v>0.02755991710633001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01697582873568273</v>
+        <v>0.03326989944055942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6133085885051939</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8710564640447744</v>
+        <v>0.9270248150952147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.009817784959673918</v>
+        <v>0.01180322476555113</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02679361369535665</v>
+        <v>0.04507312420611054</v>
       </c>
       <c r="C4" t="n">
-        <v>1.180397581481353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.051454045526128</v>
+        <v>0.8083231836897513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007846942796316383</v>
+        <v>0.007308906951990237</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03464055649167303</v>
+        <v>0.05238203115810078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8219181155864403</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.873372161112568</v>
+        <v>1.589872974816916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01627404225661721</v>
+        <v>0.005143052923737484</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05091459874829024</v>
+        <v>0.05752508408183826</v>
       </c>
       <c r="C6" t="n">
-        <v>1.771337712314465</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.644709873427034</v>
+        <v>1.781999006927456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01239188440827693</v>
+        <v>0.002388634259801787</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06330648315656717</v>
+        <v>0.05991371834164005</v>
       </c>
       <c r="C7" t="n">
-        <v>1.535798325733254</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.180508199160288</v>
+        <v>0.5465925857953744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003627221478629831</v>
+        <v>0.02698214921684483</v>
       </c>
       <c r="B8" t="n">
-        <v>0.066933704635197</v>
+        <v>0.08689586755848487</v>
       </c>
       <c r="C8" t="n">
-        <v>1.783494874356695</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.964003073516983</v>
+        <v>1.022595093502492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.008317290421284158</v>
+        <v>0.07594739156829844</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07525099505648117</v>
+        <v>0.1628432591267833</v>
       </c>
       <c r="C9" t="n">
-        <v>1.041958948537237</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.00596202205422</v>
+        <v>0.8488521761671222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03175960317243857</v>
+        <v>0.002369679981608733</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1070105982289197</v>
+        <v>0.165212939108392</v>
       </c>
       <c r="C10" t="n">
-        <v>1.721257665910255</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.72721968796447</v>
+        <v>0.9639617818006891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00131000913928741</v>
+        <v>0.08523732774269703</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1083206073682071</v>
+        <v>0.2504502668510891</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00831793122777</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.73553761919224</v>
+        <v>1.552219081590062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0322678888650289</v>
+        <v>0.03481632135500946</v>
       </c>
       <c r="B12" t="n">
-        <v>0.140588496233236</v>
+        <v>0.2852665882060985</v>
       </c>
       <c r="C12" t="n">
-        <v>1.615686952054941</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13.35122457124719</v>
+        <v>0.7177117979773908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02236398671974586</v>
+        <v>0.001648282055765723</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1629524829529819</v>
+        <v>0.2869148702618642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9639950723048887</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.31521964355207</v>
+        <v>0.9632617721843293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02362353144469918</v>
+        <v>0.02709955819324277</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1865760143976811</v>
+        <v>0.314014428455107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6144951744243161</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.92971481797639</v>
+        <v>1.216324541239634</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.007602200859928685</v>
+        <v>0.0104648648129779</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1941782152576098</v>
+        <v>0.3244792932680849</v>
       </c>
       <c r="C15" t="n">
-        <v>1.724457103474291</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.65417192145068</v>
+        <v>1.686646873182048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01018313621708278</v>
+        <v>0.05086507684212309</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2043613514746925</v>
+        <v>0.375344370110208</v>
       </c>
       <c r="C16" t="n">
-        <v>1.335291303043932</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17.98946322449461</v>
+        <v>1.105404258073049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02657695028776732</v>
+        <v>0.01277859790333783</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2309383017624599</v>
+        <v>0.3881229680135459</v>
       </c>
       <c r="C17" t="n">
-        <v>1.578300254869312</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19.56776347936393</v>
+        <v>0.384266181653846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01740322582259128</v>
+        <v>0.01600586439167818</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2483415275850511</v>
+        <v>0.4041288324052241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7577657302214118</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20.32552920958534</v>
+        <v>0.9206816216592473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.005302597503894689</v>
+        <v>0.0009532954080335833</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2536441250889458</v>
+        <v>0.4050821278132576</v>
       </c>
       <c r="C19" t="n">
-        <v>1.290515774728962</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.6160449843143</v>
+        <v>1.511239157010473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0169779484353967</v>
+        <v>0.04608571588928786</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2706220735243425</v>
+        <v>0.4511678437025455</v>
       </c>
       <c r="C20" t="n">
-        <v>1.005178405612385</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.62122338992668</v>
+        <v>1.434978665312952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0149097478169894</v>
+        <v>0.03762002450503836</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2855318213413319</v>
+        <v>0.4887878682075839</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6113570930432808</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.23258048296996</v>
+        <v>1.700412267052903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03773632943579394</v>
+        <v>0.01914338602790262</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3232681507771258</v>
+        <v>0.5079312542354865</v>
       </c>
       <c r="C22" t="n">
-        <v>1.511064600720994</v>
-      </c>
-      <c r="D22" t="n">
-        <v>24.74364508369096</v>
+        <v>1.209004088527524</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.04011416684967151</v>
+        <v>0.07608841449863694</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3633823176267973</v>
+        <v>0.5840196687341234</v>
       </c>
       <c r="C23" t="n">
-        <v>1.210360927278981</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25.95400601096994</v>
+        <v>1.040359721101396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03273282285569345</v>
+        <v>0.05237361905976671</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3961151404824907</v>
+        <v>0.63639328779389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9929308860291137</v>
-      </c>
-      <c r="D24" t="n">
-        <v>26.94693689699905</v>
+        <v>1.123589585320376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01644133576934236</v>
+        <v>0.04723812769837997</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4125564762518331</v>
+        <v>0.68363141549227</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3468281844056411</v>
-      </c>
-      <c r="D25" t="n">
-        <v>27.29376508140469</v>
+        <v>1.71682382514343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0204496668636451</v>
+        <v>0.001139052291300605</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4330061431154782</v>
+        <v>0.6847704677835706</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8715682686104234</v>
-      </c>
-      <c r="D26" t="n">
-        <v>28.16533335001512</v>
+        <v>1.297927151452189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0208802941702142</v>
+        <v>0.02427543524655751</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4538864372856924</v>
+        <v>0.7090459030301282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9544046240502406</v>
-      </c>
-      <c r="D27" t="n">
-        <v>29.11973797406536</v>
+        <v>1.103143581596745</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0315598476860433</v>
+        <v>0.02160837752160124</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4854462849717357</v>
+        <v>0.7306542805517294</v>
       </c>
       <c r="C28" t="n">
-        <v>1.604192010658853</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30.72392998472421</v>
+        <v>1.603067453724044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.08951317352062249</v>
+        <v>0.02441068416049804</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5749594584923582</v>
+        <v>0.7550649647122275</v>
       </c>
       <c r="C29" t="n">
-        <v>1.120260453930532</v>
-      </c>
-      <c r="D29" t="n">
-        <v>31.84419043865474</v>
+        <v>1.046444465195843</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02718567591008981</v>
+        <v>0.01828162653239697</v>
       </c>
       <c r="B30" t="n">
-        <v>0.602145134402448</v>
+        <v>0.7733465912446245</v>
       </c>
       <c r="C30" t="n">
-        <v>1.638483529219123</v>
-      </c>
-      <c r="D30" t="n">
-        <v>33.48267396787386</v>
+        <v>1.242267753874737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.009091415088401663</v>
+        <v>0.008680803181317216</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6112365494908496</v>
+        <v>0.7820273944259417</v>
       </c>
       <c r="C31" t="n">
-        <v>1.092298935394089</v>
-      </c>
-      <c r="D31" t="n">
-        <v>34.57497290326796</v>
+        <v>1.922043930798664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01789234671803928</v>
+        <v>0.05329318036506869</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6291288962088889</v>
+        <v>0.8353205747910104</v>
       </c>
       <c r="C32" t="n">
-        <v>1.373026874560767</v>
-      </c>
-      <c r="D32" t="n">
-        <v>35.94799977782872</v>
+        <v>0.7178107046812463</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01909381222625443</v>
+        <v>0.01294066252709702</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6482227084351433</v>
+        <v>0.8482612373181074</v>
       </c>
       <c r="C33" t="n">
-        <v>1.286913142145433</v>
-      </c>
-      <c r="D33" t="n">
-        <v>37.23491291997415</v>
+        <v>0.9799004699881855</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03462348534586548</v>
+        <v>0.02305721998222591</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6828461937810087</v>
+        <v>0.8713184573003333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8391899846559185</v>
-      </c>
-      <c r="D34" t="n">
-        <v>38.07410290463007</v>
+        <v>1.292629147381561</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04864734897072257</v>
+        <v>0.02001158601703703</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7314935427517313</v>
+        <v>0.8913300433173703</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8922100654862419</v>
-      </c>
-      <c r="D35" t="n">
-        <v>38.96631297011631</v>
+        <v>1.815589747318048</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.00876668850716567</v>
+        <v>0.004365856717245459</v>
       </c>
       <c r="B36" t="n">
-        <v>0.740260231258897</v>
+        <v>0.8956959000346157</v>
       </c>
       <c r="C36" t="n">
-        <v>1.110691382617395</v>
-      </c>
-      <c r="D36" t="n">
-        <v>40.0770043527337</v>
+        <v>1.358889306975851</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05543630704224037</v>
+        <v>0.06172448767367365</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7956965383011373</v>
+        <v>0.9574203877082894</v>
       </c>
       <c r="C37" t="n">
-        <v>1.234918658125647</v>
-      </c>
-      <c r="D37" t="n">
-        <v>41.31192301085935</v>
+        <v>1.395030889910915</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.008573692030523657</v>
+        <v>0.06590971432908319</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8042702303316609</v>
+        <v>1.023330102037373</v>
       </c>
       <c r="C38" t="n">
-        <v>1.577337999962965</v>
-      </c>
-      <c r="D38" t="n">
-        <v>42.88926101082231</v>
+        <v>1.26924773064191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02414559645609847</v>
+        <v>0.02054086051502834</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8284158267877594</v>
+        <v>1.043870962552401</v>
       </c>
       <c r="C39" t="n">
-        <v>1.98659267455529</v>
-      </c>
-      <c r="D39" t="n">
-        <v>44.8758536853776</v>
+        <v>1.207978407025327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.04852048936843046</v>
+        <v>0.000430068213809611</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8769363161561898</v>
+        <v>1.044301030766211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9079682626163537</v>
-      </c>
-      <c r="D40" t="n">
-        <v>45.78382194799395</v>
+        <v>0.917153200647874</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.04339202426614405</v>
+        <v>0.02588854340674661</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9203283404223339</v>
+        <v>1.070189574172957</v>
       </c>
       <c r="C41" t="n">
-        <v>0.60459236413659</v>
-      </c>
-      <c r="D41" t="n">
-        <v>46.38841431213054</v>
+        <v>1.204922530704572</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.08524648485745362</v>
+        <v>0.06746047058925017</v>
       </c>
       <c r="B42" t="n">
-        <v>1.005574825279788</v>
+        <v>1.137650044762207</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5827052792504979</v>
-      </c>
-      <c r="D42" t="n">
-        <v>46.97111959138104</v>
+        <v>1.253394391181567</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01360737894121741</v>
+        <v>0.01968689853375006</v>
       </c>
       <c r="B43" t="n">
-        <v>1.019182204221005</v>
+        <v>1.157336943295957</v>
       </c>
       <c r="C43" t="n">
-        <v>1.434872274388967</v>
-      </c>
-      <c r="D43" t="n">
-        <v>48.40599186577001</v>
+        <v>0.7695506572333988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1472263520854697</v>
+        <v>0.00400963411815902</v>
       </c>
       <c r="B44" t="n">
-        <v>1.166408556306475</v>
+        <v>1.161346577414117</v>
       </c>
       <c r="C44" t="n">
-        <v>1.391023489455681</v>
-      </c>
-      <c r="D44" t="n">
-        <v>49.79701535522569</v>
+        <v>0.9928896542417625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03751334411591803</v>
+        <v>0.04011651644622437</v>
       </c>
       <c r="B45" t="n">
-        <v>1.203921900422393</v>
+        <v>1.201463093860341</v>
       </c>
       <c r="C45" t="n">
-        <v>1.304501535452226</v>
-      </c>
-      <c r="D45" t="n">
-        <v>51.10151689067791</v>
+        <v>1.814720428464156</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.02669099093408854</v>
+        <v>0.01875887142273783</v>
       </c>
       <c r="B46" t="n">
-        <v>1.230612891356481</v>
+        <v>1.220221965283079</v>
       </c>
       <c r="C46" t="n">
-        <v>1.271550609537586</v>
-      </c>
-      <c r="D46" t="n">
-        <v>52.3730675002155</v>
+        <v>1.465795392174356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01215404123164091</v>
+        <v>0.02536091158057383</v>
       </c>
       <c r="B47" t="n">
-        <v>1.242766932588122</v>
+        <v>1.245582876863652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.617845237241351</v>
-      </c>
-      <c r="D47" t="n">
-        <v>52.99091273745685</v>
+        <v>0.5820260827115775</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02397853834057649</v>
+        <v>0.02665351550050084</v>
       </c>
       <c r="B48" t="n">
-        <v>1.266745470928699</v>
+        <v>1.272236392364153</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4677904074485448</v>
-      </c>
-      <c r="D48" t="n">
-        <v>53.4587031449054</v>
+        <v>0.9806612002313406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.09442569835547548</v>
+        <v>0.06578661497974587</v>
       </c>
       <c r="B49" t="n">
-        <v>1.361171169284174</v>
+        <v>1.338023007343899</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5103949965048691</v>
-      </c>
-      <c r="D49" t="n">
-        <v>53.96909814141027</v>
+        <v>1.100130845339366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.03372440621685309</v>
+        <v>0.05756785038600945</v>
       </c>
       <c r="B50" t="n">
-        <v>1.394895575501027</v>
+        <v>1.395590857729909</v>
       </c>
       <c r="C50" t="n">
-        <v>1.543169701185122</v>
-      </c>
-      <c r="D50" t="n">
-        <v>55.51226784259539</v>
+        <v>0.7021792145102785</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01552894027858157</v>
+        <v>0.02431598402673155</v>
       </c>
       <c r="B51" t="n">
-        <v>1.410424515779609</v>
+        <v>1.41990684175664</v>
       </c>
       <c r="C51" t="n">
-        <v>1.189661942965517</v>
-      </c>
-      <c r="D51" t="n">
-        <v>56.70192978556091</v>
+        <v>1.154132020098295</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04642896061777091</v>
+        <v>0.05555974954116005</v>
       </c>
       <c r="B52" t="n">
-        <v>1.45685347639738</v>
+        <v>1.4754665912978</v>
       </c>
       <c r="C52" t="n">
-        <v>1.602322121132803</v>
-      </c>
-      <c r="D52" t="n">
-        <v>58.30425190669371</v>
+        <v>1.339376641601076</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02789356346898629</v>
+        <v>0.01753438063614826</v>
       </c>
       <c r="B53" t="n">
-        <v>1.484747039866366</v>
+        <v>1.493000971933948</v>
       </c>
       <c r="C53" t="n">
-        <v>0.869319829237988</v>
-      </c>
-      <c r="D53" t="n">
-        <v>59.1735717359317</v>
+        <v>1.103571841381315</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.002365488516459525</v>
+        <v>0.0032731708449706</v>
       </c>
       <c r="B54" t="n">
-        <v>1.487112528382826</v>
+        <v>1.496274142778919</v>
       </c>
       <c r="C54" t="n">
-        <v>1.45335049254051</v>
-      </c>
-      <c r="D54" t="n">
-        <v>60.6269222284722</v>
+        <v>0.6928016495668237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1072637425742419</v>
+        <v>0.02064625431982674</v>
       </c>
       <c r="B55" t="n">
-        <v>1.594376270957068</v>
+        <v>1.516920397098746</v>
       </c>
       <c r="C55" t="n">
-        <v>1.829136835168951</v>
-      </c>
-      <c r="D55" t="n">
-        <v>62.45605906364116</v>
+        <v>0.8234706916697385</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.01991816891142707</v>
+        <v>0.06352495498190502</v>
       </c>
       <c r="B56" t="n">
-        <v>1.614294439868495</v>
+        <v>1.580445352080651</v>
       </c>
       <c r="C56" t="n">
-        <v>1.331035228457352</v>
-      </c>
-      <c r="D56" t="n">
-        <v>63.78709429209851</v>
+        <v>0.7015003551940937</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.09760660625543151</v>
+        <v>0.03158786987087234</v>
       </c>
       <c r="B57" t="n">
-        <v>1.711901046123926</v>
+        <v>1.612033221951523</v>
       </c>
       <c r="C57" t="n">
-        <v>1.44047882948237</v>
-      </c>
-      <c r="D57" t="n">
-        <v>65.22757312158087</v>
+        <v>1.333854144664325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.01997334107184447</v>
+        <v>0.03821814254612593</v>
       </c>
       <c r="B58" t="n">
-        <v>1.731874387195771</v>
+        <v>1.650251364497649</v>
       </c>
       <c r="C58" t="n">
-        <v>1.537469855088355</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66.76504297666924</v>
+        <v>0.6226418924429959</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.06479794935342187</v>
+        <v>0.01626538179014001</v>
       </c>
       <c r="B59" t="n">
-        <v>1.796672336549193</v>
+        <v>1.666516746287789</v>
       </c>
       <c r="C59" t="n">
-        <v>1.767948666406201</v>
-      </c>
-      <c r="D59" t="n">
-        <v>68.53299164307543</v>
+        <v>1.464980255423412</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.02083369876223982</v>
+        <v>0.02055296274626265</v>
       </c>
       <c r="B60" t="n">
-        <v>1.817506035311433</v>
+        <v>1.687069709034051</v>
       </c>
       <c r="C60" t="n">
-        <v>1.296696376803134</v>
-      </c>
-      <c r="D60" t="n">
-        <v>69.82968801987857</v>
+        <v>0.2297879883910321</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.03001053590578372</v>
+        <v>0.007704370985585103</v>
       </c>
       <c r="B61" t="n">
-        <v>1.847516571217216</v>
+        <v>1.694774080019636</v>
       </c>
       <c r="C61" t="n">
-        <v>1.068001883062889</v>
-      </c>
-      <c r="D61" t="n">
-        <v>70.89768990294147</v>
+        <v>0.9352805992028042</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.02348267522945448</v>
+        <v>0.009444578372449827</v>
       </c>
       <c r="B62" t="n">
-        <v>1.870999246446671</v>
+        <v>1.704218658392086</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7944387146077436</v>
-      </c>
-      <c r="D62" t="n">
-        <v>71.69212861754922</v>
+        <v>0.3796402745540699</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1245698086215321</v>
+        <v>0.09459535325358594</v>
       </c>
       <c r="B63" t="n">
-        <v>1.995569055068203</v>
+        <v>1.798814011645672</v>
       </c>
       <c r="C63" t="n">
-        <v>1.30190994843558</v>
-      </c>
-      <c r="D63" t="n">
-        <v>72.99403856598479</v>
+        <v>1.299671139097348</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01326375499952961</v>
+        <v>0.03339434294861403</v>
       </c>
       <c r="B64" t="n">
-        <v>2.008832810067732</v>
+        <v>1.832208354594286</v>
       </c>
       <c r="C64" t="n">
-        <v>1.503564662427292</v>
-      </c>
-      <c r="D64" t="n">
-        <v>74.49760322841209</v>
+        <v>0.7126325532188083</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01122930028489554</v>
+        <v>0.06236801006419245</v>
       </c>
       <c r="B65" t="n">
-        <v>2.020062110352628</v>
+        <v>1.894576364658479</v>
       </c>
       <c r="C65" t="n">
-        <v>1.75146261576341</v>
-      </c>
-      <c r="D65" t="n">
-        <v>76.2490658441755</v>
+        <v>1.522815989753933</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.02216634741764331</v>
+        <v>0.0562953508656959</v>
       </c>
       <c r="B66" t="n">
-        <v>2.042228457770271</v>
+        <v>1.950871715524174</v>
       </c>
       <c r="C66" t="n">
-        <v>1.656489152449318</v>
-      </c>
-      <c r="D66" t="n">
-        <v>77.90555499662483</v>
+        <v>1.734536329030339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.009582896208569589</v>
+        <v>0.01315925469172098</v>
       </c>
       <c r="B67" t="n">
-        <v>2.051811353978841</v>
+        <v>1.964030970215895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4671929552443845</v>
-      </c>
-      <c r="D67" t="n">
-        <v>78.37274795186921</v>
+        <v>1.0443621448939</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0234976784874929</v>
+        <v>0.116807415078029</v>
       </c>
       <c r="B68" t="n">
-        <v>2.075309032466333</v>
+        <v>2.080838385293924</v>
       </c>
       <c r="C68" t="n">
-        <v>0.663489560573219</v>
-      </c>
-      <c r="D68" t="n">
-        <v>79.03623751244244</v>
+        <v>1.16728016924368</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.01098057560853235</v>
+        <v>0.05549764661540647</v>
       </c>
       <c r="B69" t="n">
-        <v>2.086289608074866</v>
+        <v>2.136336031909331</v>
       </c>
       <c r="C69" t="n">
-        <v>1.370925188323318</v>
-      </c>
-      <c r="D69" t="n">
-        <v>80.40716270076575</v>
+        <v>1.7504442887918</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.08484402217670219</v>
+        <v>0.01954944221901186</v>
       </c>
       <c r="B70" t="n">
-        <v>2.171133630251568</v>
+        <v>2.155885474128342</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6539111824380901</v>
-      </c>
-      <c r="D70" t="n">
-        <v>81.06107388320385</v>
+        <v>1.658707747496964</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0751554832953308</v>
+        <v>0.03388810934997963</v>
       </c>
       <c r="B71" t="n">
-        <v>2.246289113546899</v>
+        <v>2.189773583478322</v>
       </c>
       <c r="C71" t="n">
-        <v>1.779963156780757</v>
-      </c>
-      <c r="D71" t="n">
-        <v>82.8410370399846</v>
+        <v>0.7885447904416136</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.02446579005714916</v>
+        <v>0.01935755005537958</v>
       </c>
       <c r="B72" t="n">
-        <v>2.270754903604048</v>
+        <v>2.209131133533702</v>
       </c>
       <c r="C72" t="n">
-        <v>1.38353043404621</v>
-      </c>
-      <c r="D72" t="n">
-        <v>84.22456747403081</v>
+        <v>0.3436001731203497</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.05741822271031177</v>
+        <v>0.01836527445305913</v>
       </c>
       <c r="B73" t="n">
-        <v>2.32817312631436</v>
+        <v>2.227496407986761</v>
       </c>
       <c r="C73" t="n">
-        <v>1.473912544162741</v>
-      </c>
-      <c r="D73" t="n">
-        <v>85.69848001819355</v>
+        <v>1.420503422451337</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.09105309124871001</v>
+        <v>0.1322811410813722</v>
       </c>
       <c r="B74" t="n">
-        <v>2.41922621756307</v>
+        <v>2.359777549068133</v>
       </c>
       <c r="C74" t="n">
-        <v>1.470838030702346</v>
-      </c>
-      <c r="D74" t="n">
-        <v>87.16931804889589</v>
+        <v>0.4218978755073066</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01637120902905581</v>
+        <v>0.01224165203295577</v>
       </c>
       <c r="B75" t="n">
-        <v>2.435597426592126</v>
+        <v>2.372019201101089</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9239647745934787</v>
-      </c>
-      <c r="D75" t="n">
-        <v>88.09328282348936</v>
+        <v>0.6837820127402259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.009873310299793594</v>
+        <v>0.05895356693901366</v>
       </c>
       <c r="B76" t="n">
-        <v>2.445470736891919</v>
+        <v>2.430972768040102</v>
       </c>
       <c r="C76" t="n">
-        <v>1.243465679075906</v>
-      </c>
-      <c r="D76" t="n">
-        <v>89.33674850256527</v>
+        <v>1.503767071079344</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0255766247500368</v>
+        <v>0.0117046905163463</v>
       </c>
       <c r="B77" t="n">
-        <v>2.471047361641956</v>
+        <v>2.442677458556449</v>
       </c>
       <c r="C77" t="n">
-        <v>1.072316099164603</v>
-      </c>
-      <c r="D77" t="n">
-        <v>90.40906460172988</v>
+        <v>1.499152611828249</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.008241805453274414</v>
+        <v>0.005662111743021303</v>
       </c>
       <c r="B78" t="n">
-        <v>2.47928916709523</v>
+        <v>2.44833957029947</v>
       </c>
       <c r="C78" t="n">
-        <v>1.733470271336869</v>
-      </c>
-      <c r="D78" t="n">
-        <v>92.14253487306675</v>
+        <v>0.722482851915516</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.08559239717524769</v>
+        <v>0.02097242683986401</v>
       </c>
       <c r="B79" t="n">
-        <v>2.564881564270478</v>
+        <v>2.469311997139334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7737575792439106</v>
-      </c>
-      <c r="D79" t="n">
-        <v>92.91629245231066</v>
+        <v>1.955726645282075</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.003682609936186842</v>
+        <v>0.01228753227113166</v>
       </c>
       <c r="B80" t="n">
-        <v>2.568564174206665</v>
+        <v>2.481599529410465</v>
       </c>
       <c r="C80" t="n">
-        <v>1.57781112329926</v>
-      </c>
-      <c r="D80" t="n">
-        <v>94.49410357560991</v>
+        <v>0.5838361553084064</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.03129965030899544</v>
+        <v>0.02981880005024776</v>
       </c>
       <c r="B81" t="n">
-        <v>2.59986382451566</v>
+        <v>2.511418329460713</v>
       </c>
       <c r="C81" t="n">
-        <v>1.942293004280491</v>
-      </c>
-      <c r="D81" t="n">
-        <v>96.4363965798904</v>
+        <v>1.655970582279773</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.05584865617307265</v>
+        <v>0.03459414104600401</v>
       </c>
       <c r="B82" t="n">
-        <v>2.655712480688733</v>
+        <v>2.546012470506717</v>
       </c>
       <c r="C82" t="n">
-        <v>1.419294127955899</v>
-      </c>
-      <c r="D82" t="n">
-        <v>97.85569070784629</v>
+        <v>0.9974285454343532</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.00597002104346446</v>
+        <v>0.0089454388157901</v>
       </c>
       <c r="B83" t="n">
-        <v>2.661682501732197</v>
+        <v>2.554957909322507</v>
       </c>
       <c r="C83" t="n">
-        <v>1.414630001747228</v>
-      </c>
-      <c r="D83" t="n">
-        <v>99.27032070959352</v>
+        <v>1.226509545372952</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.07874343273499426</v>
+        <v>0.04449202687131212</v>
       </c>
       <c r="B84" t="n">
-        <v>2.740425934467191</v>
+        <v>2.59944993619382</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4751446642341555</v>
-      </c>
-      <c r="D84" t="n">
-        <v>99.74546537382767</v>
+        <v>1.706658336229017</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1312145509797391</v>
+        <v>0.009978360171817973</v>
       </c>
       <c r="B85" t="n">
-        <v>2.87164048544693</v>
+        <v>2.609428296365638</v>
       </c>
       <c r="C85" t="n">
-        <v>1.044388663942461</v>
-      </c>
-      <c r="D85" t="n">
-        <v>100.7898540377701</v>
+        <v>0.5685497038344669</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.05647803710044216</v>
+        <v>0.08239401559699021</v>
       </c>
       <c r="B86" t="n">
-        <v>2.928118522547372</v>
+        <v>2.691822311962628</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3308570053624664</v>
-      </c>
-      <c r="D86" t="n">
-        <v>101.1207110431326</v>
+        <v>0.5077871393989535</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05717010921258601</v>
+        <v>0.05082450495619259</v>
       </c>
       <c r="B87" t="n">
-        <v>2.985288631759958</v>
+        <v>2.74264681691882</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6317719349566244</v>
-      </c>
-      <c r="D87" t="n">
-        <v>101.7524829780892</v>
+        <v>1.436329543358428</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.1089247358470126</v>
+        <v>0.004191440044877334</v>
       </c>
       <c r="B88" t="n">
-        <v>3.094213367606971</v>
+        <v>2.746838256963698</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8041202304090578</v>
-      </c>
-      <c r="D88" t="n">
-        <v>102.5566032084983</v>
+        <v>1.49611731282975</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2290243868250782</v>
+        <v>0.03077038510275211</v>
       </c>
       <c r="B89" t="n">
-        <v>3.323237754432049</v>
+        <v>2.77760864206645</v>
       </c>
       <c r="C89" t="n">
-        <v>1.49541177382579</v>
-      </c>
-      <c r="D89" t="n">
-        <v>104.0520149823241</v>
+        <v>1.521428319423721</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.005850435275901966</v>
+        <v>0.004377510732924284</v>
       </c>
       <c r="B90" t="n">
-        <v>3.329088189707951</v>
+        <v>2.781986152799374</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6331077225574786</v>
-      </c>
-      <c r="D90" t="n">
-        <v>104.6851227048815</v>
+        <v>1.40024854413678</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.03222074669064354</v>
+        <v>0.01834266797921641</v>
       </c>
       <c r="B91" t="n">
-        <v>3.361308936398595</v>
+        <v>2.800328820778591</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8605939662843696</v>
-      </c>
-      <c r="D91" t="n">
-        <v>105.5457166711659</v>
+        <v>0.7767339542262559</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0105400722665063</v>
+        <v>0.0192867608854064</v>
       </c>
       <c r="B92" t="n">
-        <v>3.371849008665101</v>
+        <v>2.819615581663997</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8497033158396436</v>
-      </c>
-      <c r="D92" t="n">
-        <v>106.3954199870056</v>
+        <v>0.7644215643250478</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01852621639517634</v>
+        <v>0.00461037193424932</v>
       </c>
       <c r="B93" t="n">
-        <v>3.390375225060278</v>
+        <v>2.824225953598246</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7336024057870971</v>
-      </c>
-      <c r="D93" t="n">
-        <v>107.1290223927926</v>
+        <v>0.664163526446524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.001105825797231809</v>
+        <v>0.002202651912836195</v>
       </c>
       <c r="B94" t="n">
-        <v>3.39148105085751</v>
+        <v>2.826428605511083</v>
       </c>
       <c r="C94" t="n">
-        <v>0.40205483990041</v>
-      </c>
-      <c r="D94" t="n">
-        <v>107.5310772326931</v>
+        <v>1.521480597497151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.00670512211387263</v>
+        <v>0.1051933515839998</v>
       </c>
       <c r="B95" t="n">
-        <v>3.398186172971382</v>
+        <v>2.931621957095082</v>
       </c>
       <c r="C95" t="n">
-        <v>1.595471876795064</v>
-      </c>
-      <c r="D95" t="n">
-        <v>109.1265491094881</v>
+        <v>1.679056829647064</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.005152702461363359</v>
+        <v>0.008978457333326889</v>
       </c>
       <c r="B96" t="n">
-        <v>3.403338875432746</v>
+        <v>2.940600414428409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5569760985011363</v>
-      </c>
-      <c r="D96" t="n">
-        <v>109.6835252079893</v>
+        <v>0.7086728269591425</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1591740571088247</v>
+        <v>0.0008543793190336103</v>
       </c>
       <c r="B97" t="n">
-        <v>3.56251293254157</v>
+        <v>2.941454793747442</v>
       </c>
       <c r="C97" t="n">
-        <v>1.332109972481153</v>
-      </c>
-      <c r="D97" t="n">
-        <v>111.0156351804704</v>
+        <v>1.525622321497786</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.07302716563219674</v>
+        <v>0.04709653852466427</v>
       </c>
       <c r="B98" t="n">
-        <v>3.635540098173767</v>
+        <v>2.988551332272106</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1572696472364314</v>
-      </c>
-      <c r="D98" t="n">
-        <v>111.1729048277068</v>
+        <v>0.8089979107277976</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.001820218152443148</v>
+        <v>0.02494309501308706</v>
       </c>
       <c r="B99" t="n">
-        <v>3.63736031632621</v>
+        <v>3.013494427285194</v>
       </c>
       <c r="C99" t="n">
-        <v>1.405808345957937</v>
-      </c>
-      <c r="D99" t="n">
-        <v>112.5787131736648</v>
+        <v>0.6037682629415486</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.009240454239143155</v>
+        <v>0.02449562349213636</v>
       </c>
       <c r="B100" t="n">
-        <v>3.646600770565353</v>
+        <v>3.03799005077733</v>
       </c>
       <c r="C100" t="n">
-        <v>1.565936423225277</v>
-      </c>
-      <c r="D100" t="n">
-        <v>114.1446495968901</v>
+        <v>1.580269781864858</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.04061781767288358</v>
+        <v>0.02956634296186527</v>
       </c>
       <c r="B101" t="n">
-        <v>3.687218588238237</v>
+        <v>3.067556393739195</v>
       </c>
       <c r="C101" t="n">
-        <v>1.167922977454239</v>
-      </c>
-      <c r="D101" t="n">
-        <v>115.3125725743443</v>
+        <v>0.9278233184439175</v>
       </c>
     </row>
   </sheetData>

--- a/Semana 5/tiempo_de_LLegadayRampa.xlsx
+++ b/Semana 5/tiempo_de_LLegadayRampa.xlsx
@@ -446,1108 +446,1108 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TEA_Rampa</t>
+          <t>TServicio_Rampa</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00570998233422941</v>
+        <v>0.009678512988555042</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00570998233422941</v>
+        <v>0.009678512988555042</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375819435102564</v>
+        <v>0.8411485442014355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02755991710633001</v>
+        <v>0.01639059939048847</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03326989944055942</v>
+        <v>0.02606911237904351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9270248150952147</v>
+        <v>1.243972515631941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01180322476555113</v>
+        <v>0.07766334573972637</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04507312420611054</v>
+        <v>0.1037324581187699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8083231836897513</v>
+        <v>1.188968408623866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007308906951990237</v>
+        <v>0.006904840347639566</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05238203115810078</v>
+        <v>0.1106372984664094</v>
       </c>
       <c r="C5" t="n">
-        <v>1.589872974816916</v>
+        <v>0.9501021564637262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005143052923737484</v>
+        <v>0.004640729040159923</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05752508408183826</v>
+        <v>0.1152780275065694</v>
       </c>
       <c r="C6" t="n">
-        <v>1.781999006927456</v>
+        <v>1.365140489496943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.002388634259801787</v>
+        <v>0.009584988711113785</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05991371834164005</v>
+        <v>0.1248630162176832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5465925857953744</v>
+        <v>0.7976085911386799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02698214921684483</v>
+        <v>0.03314944002572494</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08689586755848487</v>
+        <v>0.1580124562434081</v>
       </c>
       <c r="C8" t="n">
-        <v>1.022595093502492</v>
+        <v>0.867122609956815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07594739156829844</v>
+        <v>0.02701707110706078</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1628432591267833</v>
+        <v>0.1850295273504689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8488521761671222</v>
+        <v>1.509583430650305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002369679981608733</v>
+        <v>0.008478352564699799</v>
       </c>
       <c r="B10" t="n">
-        <v>0.165212939108392</v>
+        <v>0.1935078799151687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9639617818006891</v>
+        <v>0.6521931636378595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08523732774269703</v>
+        <v>0.01862772257835407</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2504502668510891</v>
+        <v>0.2121356024935228</v>
       </c>
       <c r="C11" t="n">
-        <v>1.552219081590062</v>
+        <v>1.550869972378285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03481632135500946</v>
+        <v>0.03318128444232575</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2852665882060985</v>
+        <v>0.2453168869358485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7177117979773908</v>
+        <v>1.63733208995105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001648282055765723</v>
+        <v>0.05171297013429462</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2869148702618642</v>
+        <v>0.2970298570701431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9632617721843293</v>
+        <v>0.495483431548976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02709955819324277</v>
+        <v>0.04674809960957065</v>
       </c>
       <c r="B14" t="n">
-        <v>0.314014428455107</v>
+        <v>0.3437779566797138</v>
       </c>
       <c r="C14" t="n">
-        <v>1.216324541239634</v>
+        <v>1.179192834582974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0104648648129779</v>
+        <v>0.003720932572473188</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3244792932680849</v>
+        <v>0.347498889252187</v>
       </c>
       <c r="C15" t="n">
-        <v>1.686646873182048</v>
+        <v>1.247996774241592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05086507684212309</v>
+        <v>0.000855618567013903</v>
       </c>
       <c r="B16" t="n">
-        <v>0.375344370110208</v>
+        <v>0.3483545078192009</v>
       </c>
       <c r="C16" t="n">
-        <v>1.105404258073049</v>
+        <v>0.578487217775391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01277859790333783</v>
+        <v>0.02376327486502013</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3881229680135459</v>
+        <v>0.372117782684221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.384266181653846</v>
+        <v>0.9495849016836748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01600586439167818</v>
+        <v>0.02058033570177742</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4041288324052241</v>
+        <v>0.3926981183859984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9206816216592473</v>
+        <v>1.39610069776037</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0009532954080335833</v>
+        <v>0.003403683266886559</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4050821278132576</v>
+        <v>0.3961018016528849</v>
       </c>
       <c r="C19" t="n">
-        <v>1.511239157010473</v>
+        <v>1.560868364001299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04608571588928786</v>
+        <v>0.02718134448980141</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4511678437025455</v>
+        <v>0.4232831461426864</v>
       </c>
       <c r="C20" t="n">
-        <v>1.434978665312952</v>
+        <v>1.309408081239948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.03762002450503836</v>
+        <v>0.005040490213599436</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4887878682075839</v>
+        <v>0.4283236363562858</v>
       </c>
       <c r="C21" t="n">
-        <v>1.700412267052903</v>
+        <v>0.8633597411167899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01914338602790262</v>
+        <v>0.04728458127213063</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5079312542354865</v>
+        <v>0.4756082176284164</v>
       </c>
       <c r="C22" t="n">
-        <v>1.209004088527524</v>
+        <v>1.283692425093426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.07608841449863694</v>
+        <v>0.005685586580178936</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5840196687341234</v>
+        <v>0.4812938042085954</v>
       </c>
       <c r="C23" t="n">
-        <v>1.040359721101396</v>
+        <v>1.340589693248261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05237361905976671</v>
+        <v>0.07509234817924736</v>
       </c>
       <c r="B24" t="n">
-        <v>0.63639328779389</v>
+        <v>0.5563861523878427</v>
       </c>
       <c r="C24" t="n">
-        <v>1.123589585320376</v>
+        <v>0.9439650207140569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04723812769837997</v>
+        <v>0.05239056401587909</v>
       </c>
       <c r="B25" t="n">
-        <v>0.68363141549227</v>
+        <v>0.6087767164037218</v>
       </c>
       <c r="C25" t="n">
-        <v>1.71682382514343</v>
+        <v>0.1589126468482229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.001139052291300605</v>
+        <v>0.009730196707333457</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6847704677835706</v>
+        <v>0.6185069131110552</v>
       </c>
       <c r="C26" t="n">
-        <v>1.297927151452189</v>
+        <v>1.691756574352496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02427543524655751</v>
+        <v>0.01674866589857389</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7090459030301282</v>
+        <v>0.6352555790096291</v>
       </c>
       <c r="C27" t="n">
-        <v>1.103143581596745</v>
+        <v>0.8564527583242847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.02160837752160124</v>
+        <v>0.01088791632379541</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7306542805517294</v>
+        <v>0.6461434953334245</v>
       </c>
       <c r="C28" t="n">
-        <v>1.603067453724044</v>
+        <v>1.605616553555727</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.02441068416049804</v>
+        <v>0.01926282371701006</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7550649647122275</v>
+        <v>0.6654063190504346</v>
       </c>
       <c r="C29" t="n">
-        <v>1.046444465195843</v>
+        <v>1.758445421501929</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01828162653239697</v>
+        <v>0.02603919834973473</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7733465912446245</v>
+        <v>0.6914455174001694</v>
       </c>
       <c r="C30" t="n">
-        <v>1.242267753874737</v>
+        <v>1.204147357882845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.008680803181317216</v>
+        <v>0.05803184864697768</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7820273944259417</v>
+        <v>0.749477366047147</v>
       </c>
       <c r="C31" t="n">
-        <v>1.922043930798664</v>
+        <v>1.007575596389662</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.05329318036506869</v>
+        <v>0.005077179674584413</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8353205747910104</v>
+        <v>0.7545545457217314</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7178107046812463</v>
+        <v>1.543264869104039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01294066252709702</v>
+        <v>0.03361647775241006</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8482612373181074</v>
+        <v>0.7881710234741415</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9799004699881855</v>
+        <v>1.824996812368095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02305721998222591</v>
+        <v>0.07327320682051264</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8713184573003333</v>
+        <v>0.8614442302946541</v>
       </c>
       <c r="C34" t="n">
-        <v>1.292629147381561</v>
+        <v>1.362027814077805</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02001158601703703</v>
+        <v>0.007070652853679666</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8913300433173703</v>
+        <v>0.8685148831483338</v>
       </c>
       <c r="C35" t="n">
-        <v>1.815589747318048</v>
+        <v>1.531993850560552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.004365856717245459</v>
+        <v>0.0003708306312672575</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8956959000346157</v>
+        <v>0.8688857137796011</v>
       </c>
       <c r="C36" t="n">
-        <v>1.358889306975851</v>
+        <v>1.9431393547222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.06172448767367365</v>
+        <v>0.02980355805216604</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9574203877082894</v>
+        <v>0.8986892718317672</v>
       </c>
       <c r="C37" t="n">
-        <v>1.395030889910915</v>
+        <v>1.226551499421825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.06590971432908319</v>
+        <v>0.01010295428271868</v>
       </c>
       <c r="B38" t="n">
-        <v>1.023330102037373</v>
+        <v>0.9087922261144858</v>
       </c>
       <c r="C38" t="n">
-        <v>1.26924773064191</v>
+        <v>0.5391484091369585</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02054086051502834</v>
+        <v>0.004212610632727448</v>
       </c>
       <c r="B39" t="n">
-        <v>1.043870962552401</v>
+        <v>0.9130048367472133</v>
       </c>
       <c r="C39" t="n">
-        <v>1.207978407025327</v>
+        <v>1.502470018684101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.000430068213809611</v>
+        <v>0.002187959612390131</v>
       </c>
       <c r="B40" t="n">
-        <v>1.044301030766211</v>
+        <v>0.9151927963596035</v>
       </c>
       <c r="C40" t="n">
-        <v>0.917153200647874</v>
+        <v>0.8265685348575575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.02588854340674661</v>
+        <v>0.02333301641424188</v>
       </c>
       <c r="B41" t="n">
-        <v>1.070189574172957</v>
+        <v>0.9385258127738454</v>
       </c>
       <c r="C41" t="n">
-        <v>1.204922530704572</v>
+        <v>1.386892121907142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06746047058925017</v>
+        <v>0.02536903611548613</v>
       </c>
       <c r="B42" t="n">
-        <v>1.137650044762207</v>
+        <v>0.9638948488893315</v>
       </c>
       <c r="C42" t="n">
-        <v>1.253394391181567</v>
+        <v>1.162000197368468</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01968689853375006</v>
+        <v>0.07273971186045318</v>
       </c>
       <c r="B43" t="n">
-        <v>1.157336943295957</v>
+        <v>1.036634560749785</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7695506572333988</v>
+        <v>0.8223139267165134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.00400963411815902</v>
+        <v>0.03162588937902791</v>
       </c>
       <c r="B44" t="n">
-        <v>1.161346577414117</v>
+        <v>1.068260450128813</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9928896542417625</v>
+        <v>1.511877914120156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04011651644622437</v>
+        <v>0.06981465269888744</v>
       </c>
       <c r="B45" t="n">
-        <v>1.201463093860341</v>
+        <v>1.1380751028277</v>
       </c>
       <c r="C45" t="n">
-        <v>1.814720428464156</v>
+        <v>1.107338133572195</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01875887142273783</v>
+        <v>0.003133537115392489</v>
       </c>
       <c r="B46" t="n">
-        <v>1.220221965283079</v>
+        <v>1.141208639943093</v>
       </c>
       <c r="C46" t="n">
-        <v>1.465795392174356</v>
+        <v>1.056228271744607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.02536091158057383</v>
+        <v>0.02340523863528173</v>
       </c>
       <c r="B47" t="n">
-        <v>1.245582876863652</v>
+        <v>1.164613878578374</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5820260827115775</v>
+        <v>0.9544702776018523</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02665351550050084</v>
+        <v>0.009322752896011938</v>
       </c>
       <c r="B48" t="n">
-        <v>1.272236392364153</v>
+        <v>1.173936631474386</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9806612002313406</v>
+        <v>0.787600970981265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.06578661497974587</v>
+        <v>0.006501400249331222</v>
       </c>
       <c r="B49" t="n">
-        <v>1.338023007343899</v>
+        <v>1.180438031723718</v>
       </c>
       <c r="C49" t="n">
-        <v>1.100130845339366</v>
+        <v>1.784451697515143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05756785038600945</v>
+        <v>0.01056113384113341</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395590857729909</v>
+        <v>1.190999165564851</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7021792145102785</v>
+        <v>1.145056704261586</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.02431598402673155</v>
+        <v>0.07264371322690044</v>
       </c>
       <c r="B51" t="n">
-        <v>1.41990684175664</v>
+        <v>1.263642878791751</v>
       </c>
       <c r="C51" t="n">
-        <v>1.154132020098295</v>
+        <v>0.7254266477807136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05555974954116005</v>
+        <v>0.04681155285683466</v>
       </c>
       <c r="B52" t="n">
-        <v>1.4754665912978</v>
+        <v>1.310454431648586</v>
       </c>
       <c r="C52" t="n">
-        <v>1.339376641601076</v>
+        <v>1.774511612384237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.01753438063614826</v>
+        <v>0.1402828478433405</v>
       </c>
       <c r="B53" t="n">
-        <v>1.493000971933948</v>
+        <v>1.450737279491926</v>
       </c>
       <c r="C53" t="n">
-        <v>1.103571841381315</v>
+        <v>1.554325153397196</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0032731708449706</v>
+        <v>0.1740056661400502</v>
       </c>
       <c r="B54" t="n">
-        <v>1.496274142778919</v>
+        <v>1.624742945631977</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6928016495668237</v>
+        <v>0.8735202870822567</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.02064625431982674</v>
+        <v>0.01050711683439565</v>
       </c>
       <c r="B55" t="n">
-        <v>1.516920397098746</v>
+        <v>1.635250062466372</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8234706916697385</v>
+        <v>1.218026843331093</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.06352495498190502</v>
+        <v>0.01066333085777825</v>
       </c>
       <c r="B56" t="n">
-        <v>1.580445352080651</v>
+        <v>1.645913393324151</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7015003551940937</v>
+        <v>0.8173062164554472</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.03158786987087234</v>
+        <v>0.002982855337573599</v>
       </c>
       <c r="B57" t="n">
-        <v>1.612033221951523</v>
+        <v>1.648896248661724</v>
       </c>
       <c r="C57" t="n">
-        <v>1.333854144664325</v>
+        <v>1.317304430332939</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.03821814254612593</v>
+        <v>0.0107820762964049</v>
       </c>
       <c r="B58" t="n">
-        <v>1.650251364497649</v>
+        <v>1.659678324958129</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6226418924429959</v>
+        <v>0.7387083216691281</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.01626538179014001</v>
+        <v>0.00838212291361146</v>
       </c>
       <c r="B59" t="n">
-        <v>1.666516746287789</v>
+        <v>1.66806044787174</v>
       </c>
       <c r="C59" t="n">
-        <v>1.464980255423412</v>
+        <v>1.206023157543118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.02055296274626265</v>
+        <v>0.003746798949229991</v>
       </c>
       <c r="B60" t="n">
-        <v>1.687069709034051</v>
+        <v>1.67180724682097</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2297879883910321</v>
+        <v>1.666359545499911</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.007704370985585103</v>
+        <v>0.06177463725617117</v>
       </c>
       <c r="B61" t="n">
-        <v>1.694774080019636</v>
+        <v>1.733581884077142</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9352805992028042</v>
+        <v>1.84416764658815</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.009444578372449827</v>
+        <v>0.0007851015811466093</v>
       </c>
       <c r="B62" t="n">
-        <v>1.704218658392086</v>
+        <v>1.734366985658288</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3796402745540699</v>
+        <v>1.717371737296647</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.09459535325358594</v>
+        <v>0.0258194647151036</v>
       </c>
       <c r="B63" t="n">
-        <v>1.798814011645672</v>
+        <v>1.760186450373392</v>
       </c>
       <c r="C63" t="n">
-        <v>1.299671139097348</v>
+        <v>1.033434204004913</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.03339434294861403</v>
+        <v>0.01309871246014602</v>
       </c>
       <c r="B64" t="n">
-        <v>1.832208354594286</v>
+        <v>1.773285162833538</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7126325532188083</v>
+        <v>1.249739311325078</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06236801006419245</v>
+        <v>0.002303760962172642</v>
       </c>
       <c r="B65" t="n">
-        <v>1.894576364658479</v>
+        <v>1.77558892379571</v>
       </c>
       <c r="C65" t="n">
-        <v>1.522815989753933</v>
+        <v>1.604508670096787</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0562953508656959</v>
+        <v>0.005726395359213709</v>
       </c>
       <c r="B66" t="n">
-        <v>1.950871715524174</v>
+        <v>1.781315319154924</v>
       </c>
       <c r="C66" t="n">
-        <v>1.734536329030339</v>
+        <v>0.6912150925397595</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.01315925469172098</v>
+        <v>0.04739757809948617</v>
       </c>
       <c r="B67" t="n">
-        <v>1.964030970215895</v>
+        <v>1.82871289725441</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0443621448939</v>
+        <v>1.46383574098834</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.116807415078029</v>
+        <v>0.005643866161652903</v>
       </c>
       <c r="B68" t="n">
-        <v>2.080838385293924</v>
+        <v>1.834356763416063</v>
       </c>
       <c r="C68" t="n">
-        <v>1.16728016924368</v>
+        <v>1.477281951446896</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.05549764661540647</v>
+        <v>0.03503417954523051</v>
       </c>
       <c r="B69" t="n">
-        <v>2.136336031909331</v>
+        <v>1.869390942961294</v>
       </c>
       <c r="C69" t="n">
-        <v>1.7504442887918</v>
+        <v>1.679363081496364</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01954944221901186</v>
+        <v>0.06031751946294373</v>
       </c>
       <c r="B70" t="n">
-        <v>2.155885474128342</v>
+        <v>1.929708462424237</v>
       </c>
       <c r="C70" t="n">
-        <v>1.658707747496964</v>
+        <v>0.3408762757813417</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.03388810934997963</v>
+        <v>0.02092001661476755</v>
       </c>
       <c r="B71" t="n">
-        <v>2.189773583478322</v>
+        <v>1.950628479039005</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7885447904416136</v>
+        <v>1.394387309763489</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.01935755005537958</v>
+        <v>0.01508412794700529</v>
       </c>
       <c r="B72" t="n">
-        <v>2.209131133533702</v>
+        <v>1.96571260698601</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3436001731203497</v>
+        <v>0.5536141429386916</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01836527445305913</v>
+        <v>0.003731248932721874</v>
       </c>
       <c r="B73" t="n">
-        <v>2.227496407986761</v>
+        <v>1.969443855918732</v>
       </c>
       <c r="C73" t="n">
-        <v>1.420503422451337</v>
+        <v>1.479569748704618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1322811410813722</v>
+        <v>0.04803699755150642</v>
       </c>
       <c r="B74" t="n">
-        <v>2.359777549068133</v>
+        <v>2.017480853470238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4218978755073066</v>
+        <v>1.725140575734791</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01224165203295577</v>
+        <v>0.01272304112816271</v>
       </c>
       <c r="B75" t="n">
-        <v>2.372019201101089</v>
+        <v>2.030203894598401</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6837820127402259</v>
+        <v>1.250405603077469</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.05895356693901366</v>
+        <v>0.06766421775599524</v>
       </c>
       <c r="B76" t="n">
-        <v>2.430972768040102</v>
+        <v>2.097868112354397</v>
       </c>
       <c r="C76" t="n">
-        <v>1.503767071079344</v>
+        <v>0.4698296459641478</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0117046905163463</v>
+        <v>0.013197394722371</v>
       </c>
       <c r="B77" t="n">
-        <v>2.442677458556449</v>
+        <v>2.111065507076768</v>
       </c>
       <c r="C77" t="n">
-        <v>1.499152611828249</v>
+        <v>0.3205800168705657</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.005662111743021303</v>
+        <v>0.1027693248511165</v>
       </c>
       <c r="B78" t="n">
-        <v>2.44833957029947</v>
+        <v>2.213834831927884</v>
       </c>
       <c r="C78" t="n">
-        <v>0.722482851915516</v>
+        <v>1.687836697733906</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.02097242683986401</v>
+        <v>0.04167009977786063</v>
       </c>
       <c r="B79" t="n">
-        <v>2.469311997139334</v>
+        <v>2.255504931705745</v>
       </c>
       <c r="C79" t="n">
-        <v>1.955726645282075</v>
+        <v>0.8125953434452029</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01228753227113166</v>
+        <v>0.004086007298315019</v>
       </c>
       <c r="B80" t="n">
-        <v>2.481599529410465</v>
+        <v>2.25959093900406</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5838361553084064</v>
+        <v>0.6604322156780631</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.02981880005024776</v>
+        <v>0.006209098933279258</v>
       </c>
       <c r="B81" t="n">
-        <v>2.511418329460713</v>
+        <v>2.265800037937339</v>
       </c>
       <c r="C81" t="n">
-        <v>1.655970582279773</v>
+        <v>1.675240981480074</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.03459414104600401</v>
+        <v>0.06162508701339997</v>
       </c>
       <c r="B82" t="n">
-        <v>2.546012470506717</v>
+        <v>2.327425124950739</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9974285454343532</v>
+        <v>1.090010342569292</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.0089454388157901</v>
+        <v>0.03582359048339912</v>
       </c>
       <c r="B83" t="n">
-        <v>2.554957909322507</v>
+        <v>2.363248715434138</v>
       </c>
       <c r="C83" t="n">
-        <v>1.226509545372952</v>
+        <v>1.513322121139746</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.04449202687131212</v>
+        <v>0.08884711969654033</v>
       </c>
       <c r="B84" t="n">
-        <v>2.59944993619382</v>
+        <v>2.452095835130678</v>
       </c>
       <c r="C84" t="n">
-        <v>1.706658336229017</v>
+        <v>1.735095310225792</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.009978360171817973</v>
+        <v>0.005046746360251963</v>
       </c>
       <c r="B85" t="n">
-        <v>2.609428296365638</v>
+        <v>2.45714258149093</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5685497038344669</v>
+        <v>0.8412794563316304</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.08239401559699021</v>
+        <v>0.04736359138708118</v>
       </c>
       <c r="B86" t="n">
-        <v>2.691822311962628</v>
+        <v>2.504506172878012</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5077871393989535</v>
+        <v>0.8995714961086361</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05082450495619259</v>
+        <v>0.01558466167201317</v>
       </c>
       <c r="B87" t="n">
-        <v>2.74264681691882</v>
+        <v>2.520090834550025</v>
       </c>
       <c r="C87" t="n">
-        <v>1.436329543358428</v>
+        <v>0.8891418378260374</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.004191440044877334</v>
+        <v>0.001808870685371914</v>
       </c>
       <c r="B88" t="n">
-        <v>2.746838256963698</v>
+        <v>2.521899705235397</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49611731282975</v>
+        <v>1.587632847725196</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.03077038510275211</v>
+        <v>0.004554174016876279</v>
       </c>
       <c r="B89" t="n">
-        <v>2.77760864206645</v>
+        <v>2.526453879252273</v>
       </c>
       <c r="C89" t="n">
-        <v>1.521428319423721</v>
+        <v>1.050812339921614</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.004377510732924284</v>
+        <v>0.0136461239846095</v>
       </c>
       <c r="B90" t="n">
-        <v>2.781986152799374</v>
+        <v>2.540100003236882</v>
       </c>
       <c r="C90" t="n">
-        <v>1.40024854413678</v>
+        <v>1.105271683183278</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.01834266797921641</v>
+        <v>0.05495795604320402</v>
       </c>
       <c r="B91" t="n">
-        <v>2.800328820778591</v>
+        <v>2.595057959280086</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7767339542262559</v>
+        <v>1.438444753513797</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0192867608854064</v>
+        <v>0.009037269542858767</v>
       </c>
       <c r="B92" t="n">
-        <v>2.819615581663997</v>
+        <v>2.604095228822945</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7644215643250478</v>
+        <v>1.214698715945614</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.00461037193424932</v>
+        <v>0.003836908379015235</v>
       </c>
       <c r="B93" t="n">
-        <v>2.824225953598246</v>
+        <v>2.60793213720196</v>
       </c>
       <c r="C93" t="n">
-        <v>0.664163526446524</v>
+        <v>0.8016801700780642</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.002202651912836195</v>
+        <v>0.0140838893241323</v>
       </c>
       <c r="B94" t="n">
-        <v>2.826428605511083</v>
+        <v>2.622016026526093</v>
       </c>
       <c r="C94" t="n">
-        <v>1.521480597497151</v>
+        <v>1.506369646810645</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1051933515839998</v>
+        <v>0.02069272042374352</v>
       </c>
       <c r="B95" t="n">
-        <v>2.931621957095082</v>
+        <v>2.642708746949836</v>
       </c>
       <c r="C95" t="n">
-        <v>1.679056829647064</v>
+        <v>1.332798010954818</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.008978457333326889</v>
+        <v>0.152008033546838</v>
       </c>
       <c r="B96" t="n">
-        <v>2.940600414428409</v>
+        <v>2.794716780496675</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7086728269591425</v>
+        <v>1.162419962841604</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0008543793190336103</v>
+        <v>0.006732315315309264</v>
       </c>
       <c r="B97" t="n">
-        <v>2.941454793747442</v>
+        <v>2.801449095811984</v>
       </c>
       <c r="C97" t="n">
-        <v>1.525622321497786</v>
+        <v>0.9368899471120178</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.04709653852466427</v>
+        <v>0.007740781670487577</v>
       </c>
       <c r="B98" t="n">
-        <v>2.988551332272106</v>
+        <v>2.809189877482472</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8089979107277976</v>
+        <v>0.5734907074394611</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.02494309501308706</v>
+        <v>0.02878021344450502</v>
       </c>
       <c r="B99" t="n">
-        <v>3.013494427285194</v>
+        <v>2.837970090926976</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6037682629415486</v>
+        <v>0.998332895857253</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.02449562349213636</v>
+        <v>0.1109997645383797</v>
       </c>
       <c r="B100" t="n">
-        <v>3.03799005077733</v>
+        <v>2.948969855465356</v>
       </c>
       <c r="C100" t="n">
-        <v>1.580269781864858</v>
+        <v>1.776044125103887</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.02956634296186527</v>
+        <v>0.01494625352436588</v>
       </c>
       <c r="B101" t="n">
-        <v>3.067556393739195</v>
+        <v>2.963916108989722</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9278233184439175</v>
+        <v>1.120815382112748</v>
       </c>
     </row>
   </sheetData>
